--- a/global_data/day_data/002364.xlsx
+++ b/global_data/day_data/002364.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3618"/>
+  <dimension ref="A1:I3620"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -105330,6 +105332,64 @@
         <v>0.03569884371193001</v>
       </c>
     </row>
+    <row r="3619" spans="1:9">
+      <c r="A3619" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B3619">
+        <v>14.07</v>
+      </c>
+      <c r="C3619">
+        <v>14.2</v>
+      </c>
+      <c r="D3619">
+        <v>13.81</v>
+      </c>
+      <c r="E3619">
+        <v>13.87</v>
+      </c>
+      <c r="F3619">
+        <v>23225010</v>
+      </c>
+      <c r="G3619">
+        <v>324531910</v>
+      </c>
+      <c r="H3619">
+        <v>558104435</v>
+      </c>
+      <c r="I3619">
+        <v>0.04161409324761951</v>
+      </c>
+    </row>
+    <row r="3620" spans="1:9">
+      <c r="A3620" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B3620">
+        <v>13.8</v>
+      </c>
+      <c r="C3620">
+        <v>14.09</v>
+      </c>
+      <c r="D3620">
+        <v>13.72</v>
+      </c>
+      <c r="E3620">
+        <v>14</v>
+      </c>
+      <c r="F3620">
+        <v>22911100</v>
+      </c>
+      <c r="G3620">
+        <v>320499566</v>
+      </c>
+      <c r="H3620">
+        <v>558104435</v>
+      </c>
+      <c r="I3620">
+        <v>0.04105163579286017</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
